--- a/biology/Botanique/Canavalia_gladiata/Canavalia_gladiata.xlsx
+++ b/biology/Botanique/Canavalia_gladiata/Canavalia_gladiata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canavalia gladiata, le Pois sabre, ou Haricot sabre, est une plante de la famille des Fabaceae originaire d'Amérique centrale[1] et cultivée dans les régions tropicales et subtropicales d'Afrique et d'Asie. Ses gousses vertes et ses graines immatures sont consommées comme légumes cuits[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canavalia gladiata, le Pois sabre, ou Haricot sabre, est une plante de la famille des Fabaceae originaire d'Amérique centrale et cultivée dans les régions tropicales et subtropicales d'Afrique et d'Asie. Ses gousses vertes et ses graines immatures sont consommées comme légumes cuits.
 D'autres espèces proches comme Canavalia ensiformis portent également le nom de pois sabre ou haricot sabre.
 On peut les différencier par la couleur de leurs graines. Canavalia gladiata a des graines roses alors que Canavalia ensiformis a des graines blanches
 </t>
